--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a_hayashi\Personal_Data\Study\git\hello-git-9\hello-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79AE9E2-75B4-4DF5-BDD2-83B98EE1DFDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3991D538-6F77-4761-8387-147D75D578EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bbb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,11 +361,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -375,6 +377,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a_hayashi\Personal_Data\Study\git\hello-git-9\hello-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3991D538-6F77-4761-8387-147D75D578EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBDB0F2-31D6-4C5D-BCCE-71401BF09ACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>ccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ddd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,9 +365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -382,6 +388,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a_hayashi\Personal_Data\Study\git\hello-git-9\hello-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBDB0F2-31D6-4C5D-BCCE-71401BF09ACA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B953A98-542E-449B-A5E2-644326601FD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eee</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -365,11 +369,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -393,6 +395,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
